--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Cd34-Selp.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Cd34-Selp.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T26"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>181.777022</v>
+        <v>177.3308206666667</v>
       </c>
       <c r="H2">
-        <v>545.331066</v>
+        <v>531.992462</v>
       </c>
       <c r="I2">
-        <v>0.6745240081000091</v>
+        <v>0.7002038395306831</v>
       </c>
       <c r="J2">
-        <v>0.6869174838889931</v>
+        <v>0.7031139140072441</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>30.47780866666666</v>
+        <v>22.720324</v>
       </c>
       <c r="N2">
-        <v>91.433426</v>
+        <v>68.160972</v>
       </c>
       <c r="O2">
-        <v>0.9838017987059956</v>
+        <v>0.9912620752443135</v>
       </c>
       <c r="P2">
-        <v>0.9848051540204799</v>
+        <v>0.993419505805329</v>
       </c>
       <c r="Q2">
-        <v>5540.165296512457</v>
+        <v>4029.013700732563</v>
       </c>
       <c r="R2">
-        <v>49861.48766861211</v>
+        <v>36261.12330659306</v>
       </c>
       <c r="S2">
-        <v>0.6635979324391665</v>
+        <v>0.6940855110672213</v>
       </c>
       <c r="T2">
-        <v>0.6764798785206604</v>
+        <v>0.698487076977927</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>181.777022</v>
+        <v>177.3308206666667</v>
       </c>
       <c r="H3">
-        <v>545.331066</v>
+        <v>531.992462</v>
       </c>
       <c r="I3">
-        <v>0.6745240081000091</v>
+        <v>0.7002038395306831</v>
       </c>
       <c r="J3">
-        <v>0.6869174838889931</v>
+        <v>0.7031139140072441</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -626,22 +626,22 @@
         <v>0.133237</v>
       </c>
       <c r="O3">
-        <v>0.001433598258192696</v>
+        <v>0.001937659942985065</v>
       </c>
       <c r="P3">
-        <v>0.001435060349879339</v>
+        <v>0.001941877159483357</v>
       </c>
       <c r="Q3">
-        <v>8.073141693404665</v>
+        <v>7.875675517721556</v>
       </c>
       <c r="R3">
-        <v>72.658275240642</v>
+        <v>70.88107965949401</v>
       </c>
       <c r="S3">
-        <v>0.0009669964431213288</v>
+        <v>0.001356756931782947</v>
       </c>
       <c r="T3">
-        <v>0.0009857680447679738</v>
+        <v>0.001365360850125612</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>181.777022</v>
+        <v>177.3308206666667</v>
       </c>
       <c r="H4">
-        <v>545.331066</v>
+        <v>531.992462</v>
       </c>
       <c r="I4">
-        <v>0.6745240081000091</v>
+        <v>0.7002038395306831</v>
       </c>
       <c r="J4">
-        <v>0.6869174838889931</v>
+        <v>0.7031139140072441</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -682,28 +682,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.00569</v>
+        <v>0.006534666666666667</v>
       </c>
       <c r="N4">
-        <v>0.01707</v>
+        <v>0.019604</v>
       </c>
       <c r="O4">
-        <v>0.0001836691179428336</v>
+        <v>0.0002851001262583157</v>
       </c>
       <c r="P4">
-        <v>0.0001838564375694463</v>
+        <v>0.0002857206319153968</v>
       </c>
       <c r="Q4">
-        <v>1.03431125518</v>
+        <v>1.158797802783111</v>
       </c>
       <c r="R4">
-        <v>9.308801296619999</v>
+        <v>10.429180225048</v>
       </c>
       <c r="S4">
-        <v>0.0001238892295989934</v>
+        <v>0.0001996282030567552</v>
       </c>
       <c r="T4">
-        <v>0.0001262942014919978</v>
+        <v>0.0002008941518186578</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>181.777022</v>
+        <v>177.3308206666667</v>
       </c>
       <c r="H5">
-        <v>545.331066</v>
+        <v>531.992462</v>
       </c>
       <c r="I5">
-        <v>0.6745240081000091</v>
+        <v>0.7002038395306831</v>
       </c>
       <c r="J5">
-        <v>0.6869174838889931</v>
+        <v>0.7031139140072441</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -744,42 +744,42 @@
         <v>0.5</v>
       </c>
       <c r="M5">
-        <v>0.0946895</v>
+        <v>0.1493315</v>
       </c>
       <c r="N5">
-        <v>0.189379</v>
+        <v>0.298663</v>
       </c>
       <c r="O5">
-        <v>0.003056509128901219</v>
+        <v>0.006515164686443125</v>
       </c>
       <c r="P5">
-        <v>0.002039750925041838</v>
+        <v>0.004352896403272198</v>
       </c>
       <c r="Q5">
-        <v>17.212375324669</v>
+        <v>26.48107744638434</v>
       </c>
       <c r="R5">
-        <v>103.274251948014</v>
+        <v>158.886464678306</v>
       </c>
       <c r="S5">
-        <v>0.002061688788420718</v>
+        <v>0.004561943328622195</v>
       </c>
       <c r="T5">
-        <v>0.001401140573189986</v>
+        <v>0.00306058202737277</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>20</v>
-      </c>
-      <c r="B6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" t="s">
-        <v>24</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>181.777022</v>
+        <v>72.32699966666667</v>
       </c>
       <c r="H6">
-        <v>545.331066</v>
+        <v>216.980999</v>
       </c>
       <c r="I6">
-        <v>0.6745240081000091</v>
+        <v>0.285588498817871</v>
       </c>
       <c r="J6">
-        <v>0.6869174838889931</v>
+        <v>0.2867754157616089</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.3570223333333333</v>
+        <v>22.720324</v>
       </c>
       <c r="N6">
-        <v>1.071067</v>
+        <v>68.160972</v>
       </c>
       <c r="O6">
-        <v>0.0115244247889676</v>
+        <v>0.9912620752443135</v>
       </c>
       <c r="P6">
-        <v>0.01153617826702954</v>
+        <v>0.993419505805329</v>
       </c>
       <c r="Q6">
-        <v>64.89845654082467</v>
+        <v>1643.292866374559</v>
       </c>
       <c r="R6">
-        <v>584.086108867422</v>
+        <v>14789.63579737103</v>
       </c>
       <c r="S6">
-        <v>0.007773501199701527</v>
+        <v>0.283093048004111</v>
       </c>
       <c r="T6">
-        <v>0.007924402548882815</v>
+        <v>0.2848882918030152</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,7 +841,7 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -856,40 +856,40 @@
         <v>216.980999</v>
       </c>
       <c r="I7">
-        <v>0.2683853942167015</v>
+        <v>0.285588498817871</v>
       </c>
       <c r="J7">
-        <v>0.2733166165978157</v>
+        <v>0.2867754157616089</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>30.47780866666666</v>
+        <v>0.04441233333333333</v>
       </c>
       <c r="N7">
-        <v>91.433426</v>
+        <v>0.133237</v>
       </c>
       <c r="O7">
-        <v>0.9838017987059956</v>
+        <v>0.001937659942985065</v>
       </c>
       <c r="P7">
-        <v>0.9848051540204799</v>
+        <v>0.001941877159483357</v>
       </c>
       <c r="Q7">
-        <v>2204.36845727473</v>
+        <v>3.212210818195889</v>
       </c>
       <c r="R7">
-        <v>19839.31611547257</v>
+        <v>28.909897363763</v>
       </c>
       <c r="S7">
-        <v>0.2640380335768087</v>
+        <v>0.0005533733943366262</v>
       </c>
       <c r="T7">
-        <v>0.2691636127049683</v>
+        <v>0.0005568826297688117</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,7 +903,7 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -918,10 +918,10 @@
         <v>216.980999</v>
       </c>
       <c r="I8">
-        <v>0.2683853942167015</v>
+        <v>0.285588498817871</v>
       </c>
       <c r="J8">
-        <v>0.2733166165978157</v>
+        <v>0.2867754157616089</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -930,28 +930,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>0.04441233333333333</v>
+        <v>0.006534666666666667</v>
       </c>
       <c r="N8">
-        <v>0.133237</v>
+        <v>0.019604</v>
       </c>
       <c r="O8">
-        <v>0.001433598258192696</v>
+        <v>0.0002851001262583157</v>
       </c>
       <c r="P8">
-        <v>0.001435060349879339</v>
+        <v>0.0002857206319153968</v>
       </c>
       <c r="Q8">
-        <v>3.212210818195889</v>
+        <v>0.4726328338217778</v>
       </c>
       <c r="R8">
-        <v>28.909897363763</v>
+        <v>4.253695504396</v>
       </c>
       <c r="S8">
-        <v>0.0003847568336734233</v>
+        <v>8.142131707089788E-05</v>
       </c>
       <c r="T8">
-        <v>0.0003922258394426986</v>
+        <v>8.193765300920754E-05</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,7 +965,7 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -980,45 +980,45 @@
         <v>216.980999</v>
       </c>
       <c r="I9">
-        <v>0.2683853942167015</v>
+        <v>0.285588498817871</v>
       </c>
       <c r="J9">
-        <v>0.2733166165978157</v>
+        <v>0.2867754157616089</v>
       </c>
       <c r="K9">
         <v>1</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="M9">
-        <v>0.00569</v>
+        <v>0.1493315</v>
       </c>
       <c r="N9">
-        <v>0.01707</v>
+        <v>0.298663</v>
       </c>
       <c r="O9">
-        <v>0.0001836691179428336</v>
+        <v>0.006515164686443125</v>
       </c>
       <c r="P9">
-        <v>0.0001838564375694463</v>
+        <v>0.004352896403272198</v>
       </c>
       <c r="Q9">
-        <v>0.4115406281033333</v>
+        <v>10.80069935072283</v>
       </c>
       <c r="R9">
-        <v>3.70386565293</v>
+        <v>64.804196104337</v>
       </c>
       <c r="S9">
-        <v>4.929410862452124E-05</v>
+        <v>0.001860656102352497</v>
       </c>
       <c r="T9">
-        <v>5.025101945620859E-05</v>
+        <v>0.001248303675815596</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -1027,117 +1027,117 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G10">
+        <v>0.2238313333333334</v>
+      </c>
+      <c r="H10">
+        <v>0.671494</v>
+      </c>
+      <c r="I10">
+        <v>0.000883814547398261</v>
+      </c>
+      <c r="J10">
+        <v>0.0008874877151405584</v>
+      </c>
+      <c r="K10">
         <v>3</v>
       </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>72.32699966666667</v>
-      </c>
-      <c r="H10">
-        <v>216.980999</v>
-      </c>
-      <c r="I10">
-        <v>0.2683853942167015</v>
-      </c>
-      <c r="J10">
-        <v>0.2733166165978157</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
       <c r="L10">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.0946895</v>
+        <v>22.720324</v>
       </c>
       <c r="N10">
-        <v>0.189379</v>
+        <v>68.160972</v>
       </c>
       <c r="O10">
-        <v>0.003056509128901219</v>
+        <v>0.9912620752443135</v>
       </c>
       <c r="P10">
-        <v>0.002039750925041838</v>
+        <v>0.993419505805329</v>
       </c>
       <c r="Q10">
-        <v>6.848607434936833</v>
+        <v>5.085520414685334</v>
       </c>
       <c r="R10">
-        <v>41.091644609621</v>
+        <v>45.76968373216801</v>
       </c>
       <c r="S10">
-        <v>0.0008203224074871008</v>
+        <v>0.0008760918423851139</v>
       </c>
       <c r="T10">
-        <v>0.0005574978215347</v>
+        <v>0.0008816476073832341</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>21</v>
       </c>
-      <c r="B11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" t="s">
-        <v>24</v>
-      </c>
       <c r="E11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>72.32699966666667</v>
+        <v>0.2238313333333334</v>
       </c>
       <c r="H11">
-        <v>216.980999</v>
+        <v>0.671494</v>
       </c>
       <c r="I11">
-        <v>0.2683853942167015</v>
+        <v>0.000883814547398261</v>
       </c>
       <c r="J11">
-        <v>0.2733166165978157</v>
+        <v>0.0008874877151405584</v>
       </c>
       <c r="K11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>0.3570223333333333</v>
+        <v>0.04441233333333333</v>
       </c>
       <c r="N11">
-        <v>1.071067</v>
+        <v>0.133237</v>
       </c>
       <c r="O11">
-        <v>0.0115244247889676</v>
+        <v>0.001937659942985065</v>
       </c>
       <c r="P11">
-        <v>0.01153617826702954</v>
+        <v>0.001941877159483357</v>
       </c>
       <c r="Q11">
-        <v>25.82235418399256</v>
+        <v>0.009940871786444445</v>
       </c>
       <c r="R11">
-        <v>232.401187655933</v>
+        <v>0.089467846078</v>
       </c>
       <c r="S11">
-        <v>0.003092987290107797</v>
+        <v>1.712532045521085E-06</v>
       </c>
       <c r="T11">
-        <v>0.003153029212413766</v>
+        <v>1.723392123353522E-06</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,7 +1151,7 @@
         <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E12">
         <v>2</v>
@@ -1160,46 +1160,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.1272716666666667</v>
+        <v>0.2238313333333334</v>
       </c>
       <c r="H12">
-        <v>0.381815</v>
+        <v>0.671494</v>
       </c>
       <c r="I12">
-        <v>0.0004722697829078108</v>
+        <v>0.000883814547398261</v>
       </c>
       <c r="J12">
-        <v>0.0004809471080290077</v>
+        <v>0.0008874877151405584</v>
       </c>
       <c r="K12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>30.47780866666666</v>
+        <v>0.006534666666666667</v>
       </c>
       <c r="N12">
-        <v>91.433426</v>
+        <v>0.019604</v>
       </c>
       <c r="O12">
-        <v>0.9838017987059956</v>
+        <v>0.0002851001262583157</v>
       </c>
       <c r="P12">
-        <v>0.9848051540204799</v>
+        <v>0.0002857206319153968</v>
       </c>
       <c r="Q12">
-        <v>3.878961505354444</v>
+        <v>0.001462663152888889</v>
       </c>
       <c r="R12">
-        <v>34.91065354819</v>
+        <v>0.013163968376</v>
       </c>
       <c r="S12">
-        <v>0.0004646198618991943</v>
+        <v>2.519756390521803E-07</v>
       </c>
       <c r="T12">
-        <v>0.0004736391907982113</v>
+        <v>2.535735507871121E-07</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,7 +1213,7 @@
         <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E13">
         <v>2</v>
@@ -1222,51 +1222,51 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.1272716666666667</v>
+        <v>0.2238313333333334</v>
       </c>
       <c r="H13">
-        <v>0.381815</v>
+        <v>0.671494</v>
       </c>
       <c r="I13">
-        <v>0.0004722697829078108</v>
+        <v>0.000883814547398261</v>
       </c>
       <c r="J13">
-        <v>0.0004809471080290077</v>
+        <v>0.0008874877151405584</v>
       </c>
       <c r="K13">
         <v>1</v>
       </c>
       <c r="L13">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="M13">
-        <v>0.04441233333333333</v>
+        <v>0.1493315</v>
       </c>
       <c r="N13">
-        <v>0.133237</v>
+        <v>0.298663</v>
       </c>
       <c r="O13">
-        <v>0.001433598258192696</v>
+        <v>0.006515164686443125</v>
       </c>
       <c r="P13">
-        <v>0.001435060349879339</v>
+        <v>0.004352896403272198</v>
       </c>
       <c r="Q13">
-        <v>0.005652431683888889</v>
+        <v>0.03342506875366667</v>
       </c>
       <c r="R13">
-        <v>0.050871885155</v>
+        <v>0.200550412522</v>
       </c>
       <c r="S13">
-        <v>6.770451381736801E-07</v>
+        <v>5.758197328573863E-06</v>
       </c>
       <c r="T13">
-        <v>6.901881251215641E-07</v>
+        <v>3.863142083183598E-06</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -1275,60 +1275,60 @@
         <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E14">
         <v>2</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.1272716666666667</v>
+        <v>3.1445565</v>
       </c>
       <c r="H14">
-        <v>0.381815</v>
+        <v>6.289113</v>
       </c>
       <c r="I14">
-        <v>0.0004722697829078108</v>
+        <v>0.0124165135346664</v>
       </c>
       <c r="J14">
-        <v>0.0004809471080290077</v>
+        <v>0.008312078032909873</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>0.00569</v>
+        <v>22.720324</v>
       </c>
       <c r="N14">
-        <v>0.01707</v>
+        <v>68.160972</v>
       </c>
       <c r="O14">
-        <v>0.0001836691179428336</v>
+        <v>0.9912620752443135</v>
       </c>
       <c r="P14">
-        <v>0.0001838564375694463</v>
+        <v>0.993419505805329</v>
       </c>
       <c r="Q14">
-        <v>0.0007241757833333333</v>
+        <v>71.44534251630601</v>
       </c>
       <c r="R14">
-        <v>0.00651758205</v>
+        <v>428.6720550978361</v>
       </c>
       <c r="S14">
-        <v>8.67413744577311E-08</v>
+        <v>0.01230801897367252</v>
       </c>
       <c r="T14">
-        <v>8.8425221941541E-08</v>
+        <v>0.008257380451668657</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B15" t="s">
         <v>25</v>
@@ -1337,117 +1337,117 @@
         <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E15">
         <v>2</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.1272716666666667</v>
+        <v>3.1445565</v>
       </c>
       <c r="H15">
-        <v>0.381815</v>
+        <v>6.289113</v>
       </c>
       <c r="I15">
-        <v>0.0004722697829078108</v>
+        <v>0.0124165135346664</v>
       </c>
       <c r="J15">
-        <v>0.0004809471080290077</v>
+        <v>0.008312078032909873</v>
       </c>
       <c r="K15">
         <v>1</v>
       </c>
       <c r="L15">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M15">
-        <v>0.0946895</v>
+        <v>0.04441233333333333</v>
       </c>
       <c r="N15">
-        <v>0.189379</v>
+        <v>0.133237</v>
       </c>
       <c r="O15">
-        <v>0.003056509128901219</v>
+        <v>0.001937659942985065</v>
       </c>
       <c r="P15">
-        <v>0.002039750925041838</v>
+        <v>0.001941877159483357</v>
       </c>
       <c r="Q15">
-        <v>0.01205129048083333</v>
+        <v>0.1396570914635</v>
       </c>
       <c r="R15">
-        <v>0.072307742885</v>
+        <v>0.8379425487810001</v>
       </c>
       <c r="S15">
-        <v>1.443496902761921E-06</v>
+        <v>2.405898090765498E-05</v>
       </c>
       <c r="T15">
-        <v>9.810123084983654E-07</v>
+        <v>1.614103447995103E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>22</v>
-      </c>
-      <c r="B16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" t="s">
-        <v>24</v>
       </c>
       <c r="E16">
         <v>2</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.1272716666666667</v>
+        <v>3.1445565</v>
       </c>
       <c r="H16">
-        <v>0.381815</v>
+        <v>6.289113</v>
       </c>
       <c r="I16">
-        <v>0.0004722697829078108</v>
+        <v>0.0124165135346664</v>
       </c>
       <c r="J16">
-        <v>0.0004809471080290077</v>
+        <v>0.008312078032909873</v>
       </c>
       <c r="K16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>0.3570223333333333</v>
+        <v>0.006534666666666667</v>
       </c>
       <c r="N16">
-        <v>1.071067</v>
+        <v>0.019604</v>
       </c>
       <c r="O16">
-        <v>0.0115244247889676</v>
+        <v>0.0002851001262583157</v>
       </c>
       <c r="P16">
-        <v>0.01153617826702954</v>
+        <v>0.0002857206319153968</v>
       </c>
       <c r="Q16">
-        <v>0.04543882740055556</v>
+        <v>0.020548628542</v>
       </c>
       <c r="R16">
-        <v>0.408949446605</v>
+        <v>0.123291771252</v>
       </c>
       <c r="S16">
-        <v>5.442637593223122E-06</v>
+        <v>3.539949576421476E-06</v>
       </c>
       <c r="T16">
-        <v>5.548291575234945E-06</v>
+        <v>2.374932188093098E-06</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,7 +1461,7 @@
         <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E17">
         <v>2</v>
@@ -1470,51 +1470,51 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>14.5865095</v>
+        <v>3.1445565</v>
       </c>
       <c r="H17">
-        <v>29.173019</v>
+        <v>6.289113</v>
       </c>
       <c r="I17">
-        <v>0.05412648278575529</v>
+        <v>0.0124165135346664</v>
       </c>
       <c r="J17">
-        <v>0.03674732297192435</v>
+        <v>0.008312078032909873</v>
       </c>
       <c r="K17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L17">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M17">
-        <v>30.47780866666666</v>
+        <v>0.1493315</v>
       </c>
       <c r="N17">
-        <v>91.433426</v>
+        <v>0.298663</v>
       </c>
       <c r="O17">
-        <v>0.9838017987059956</v>
+        <v>0.006515164686443125</v>
       </c>
       <c r="P17">
-        <v>0.9848051540204799</v>
+        <v>0.004352896403272198</v>
       </c>
       <c r="Q17">
-        <v>444.5648456555156</v>
+        <v>0.4695813389797501</v>
       </c>
       <c r="R17">
-        <v>2667.389073933094</v>
+        <v>1.878325355919</v>
       </c>
       <c r="S17">
-        <v>0.05324973112225517</v>
+        <v>8.089563050980163E-05</v>
       </c>
       <c r="T17">
-        <v>0.03618895305920627</v>
+        <v>3.618161457317123E-05</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B18" t="s">
         <v>25</v>
@@ -1523,60 +1523,60 @@
         <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>14.5865095</v>
+        <v>0.2297876666666667</v>
       </c>
       <c r="H18">
-        <v>29.173019</v>
+        <v>0.6893630000000001</v>
       </c>
       <c r="I18">
-        <v>0.05412648278575529</v>
+        <v>0.0009073335693812714</v>
       </c>
       <c r="J18">
-        <v>0.03674732297192435</v>
+        <v>0.000911104483096559</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M18">
-        <v>0.04441233333333333</v>
+        <v>22.720324</v>
       </c>
       <c r="N18">
-        <v>0.133237</v>
+        <v>68.160972</v>
       </c>
       <c r="O18">
-        <v>0.001433598258192696</v>
+        <v>0.9912620752443135</v>
       </c>
       <c r="P18">
-        <v>0.001435060349879339</v>
+        <v>0.993419505805329</v>
       </c>
       <c r="Q18">
-        <v>0.6478209220838334</v>
+        <v>5.220850237870668</v>
       </c>
       <c r="R18">
-        <v>3.886925532503</v>
+        <v>46.987652140836</v>
       </c>
       <c r="S18">
-        <v>7.759563144375571E-05</v>
+        <v>0.0008994053569237094</v>
       </c>
       <c r="T18">
-        <v>5.273462616121883E-05</v>
+        <v>0.0009051089653348034</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B19" t="s">
         <v>25</v>
@@ -1585,25 +1585,25 @@
         <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>14.5865095</v>
+        <v>0.2297876666666667</v>
       </c>
       <c r="H19">
-        <v>29.173019</v>
+        <v>0.6893630000000001</v>
       </c>
       <c r="I19">
-        <v>0.05412648278575529</v>
+        <v>0.0009073335693812714</v>
       </c>
       <c r="J19">
-        <v>0.03674732297192435</v>
+        <v>0.000911104483096559</v>
       </c>
       <c r="K19">
         <v>1</v>
@@ -1612,33 +1612,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M19">
-        <v>0.00569</v>
+        <v>0.04441233333333333</v>
       </c>
       <c r="N19">
-        <v>0.01707</v>
+        <v>0.133237</v>
       </c>
       <c r="O19">
-        <v>0.0001836691179428336</v>
+        <v>0.001937659942985065</v>
       </c>
       <c r="P19">
-        <v>0.0001838564375694463</v>
+        <v>0.001941877159483357</v>
       </c>
       <c r="Q19">
-        <v>0.08299723905499999</v>
+        <v>0.01020540644788889</v>
       </c>
       <c r="R19">
-        <v>0.49798343433</v>
+        <v>0.09184865803100001</v>
       </c>
       <c r="S19">
-        <v>9.941363350607638E-06</v>
+        <v>1.758103912315749E-06</v>
       </c>
       <c r="T19">
-        <v>6.756231891831889E-06</v>
+        <v>1.769252985628098E-06</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B20" t="s">
         <v>25</v>
@@ -1647,427 +1647,117 @@
         <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>14.5865095</v>
+        <v>0.2297876666666667</v>
       </c>
       <c r="H20">
-        <v>29.173019</v>
+        <v>0.6893630000000001</v>
       </c>
       <c r="I20">
-        <v>0.05412648278575529</v>
+        <v>0.0009073335693812714</v>
       </c>
       <c r="J20">
-        <v>0.03674732297192435</v>
+        <v>0.000911104483096559</v>
       </c>
       <c r="K20">
         <v>1</v>
       </c>
       <c r="L20">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M20">
-        <v>0.0946895</v>
+        <v>0.006534666666666667</v>
       </c>
       <c r="N20">
-        <v>0.189379</v>
+        <v>0.019604</v>
       </c>
       <c r="O20">
-        <v>0.003056509128901219</v>
+        <v>0.0002851001262583157</v>
       </c>
       <c r="P20">
-        <v>0.002039750925041838</v>
+        <v>0.0002857206319153968</v>
       </c>
       <c r="Q20">
-        <v>1.38118929130025</v>
+        <v>0.001501585805777778</v>
       </c>
       <c r="R20">
-        <v>5.524757165201</v>
+        <v>0.013514272252</v>
       </c>
       <c r="S20">
-        <v>0.0001654380887499757</v>
+        <v>2.586809151890087E-07</v>
       </c>
       <c r="T20">
-        <v>7.495538602479388E-05</v>
+        <v>2.603213486512998E-07</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>23</v>
       </c>
-      <c r="B21" t="s">
-        <v>25</v>
-      </c>
-      <c r="C21" t="s">
-        <v>26</v>
-      </c>
-      <c r="D21" t="s">
-        <v>24</v>
-      </c>
       <c r="E21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>14.5865095</v>
+        <v>0.2297876666666667</v>
       </c>
       <c r="H21">
-        <v>29.173019</v>
+        <v>0.6893630000000001</v>
       </c>
       <c r="I21">
-        <v>0.05412648278575529</v>
+        <v>0.0009073335693812714</v>
       </c>
       <c r="J21">
-        <v>0.03674732297192435</v>
+        <v>0.000911104483096559</v>
       </c>
       <c r="K21">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L21">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M21">
-        <v>0.3570223333333333</v>
+        <v>0.1493315</v>
       </c>
       <c r="N21">
-        <v>1.071067</v>
+        <v>0.298663</v>
       </c>
       <c r="O21">
-        <v>0.0115244247889676</v>
+        <v>0.006515164686443125</v>
       </c>
       <c r="P21">
-        <v>0.01153617826702954</v>
+        <v>0.004352896403272198</v>
       </c>
       <c r="Q21">
-        <v>5.207709656878833</v>
+        <v>0.03431453694483334</v>
       </c>
       <c r="R21">
-        <v>31.246257941273</v>
+        <v>0.205887221669</v>
       </c>
       <c r="S21">
-        <v>0.0006237765799557863</v>
+        <v>5.911427630057252E-06</v>
       </c>
       <c r="T21">
-        <v>0.0004239236686402289</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20">
-      <c r="A22" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22" t="s">
-        <v>25</v>
-      </c>
-      <c r="C22" t="s">
-        <v>26</v>
-      </c>
-      <c r="D22" t="s">
-        <v>20</v>
-      </c>
-      <c r="E22">
-        <v>2</v>
-      </c>
-      <c r="F22">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G22">
-        <v>0.6715256666666667</v>
-      </c>
-      <c r="H22">
-        <v>2.014577</v>
-      </c>
-      <c r="I22">
-        <v>0.002491845114626373</v>
-      </c>
-      <c r="J22">
-        <v>0.002537629433237966</v>
-      </c>
-      <c r="K22">
-        <v>3</v>
-      </c>
-      <c r="L22">
-        <v>1</v>
-      </c>
-      <c r="M22">
-        <v>30.47780866666666</v>
-      </c>
-      <c r="N22">
-        <v>91.433426</v>
-      </c>
-      <c r="O22">
-        <v>0.9838017987059956</v>
-      </c>
-      <c r="P22">
-        <v>0.9848051540204799</v>
-      </c>
-      <c r="Q22">
-        <v>20.46663078342244</v>
-      </c>
-      <c r="R22">
-        <v>184.199677050802</v>
-      </c>
-      <c r="S22">
-        <v>0.002451481705866173</v>
-      </c>
-      <c r="T22">
-        <v>0.002499070544846819</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20">
-      <c r="A23" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23" t="s">
-        <v>25</v>
-      </c>
-      <c r="C23" t="s">
-        <v>26</v>
-      </c>
-      <c r="D23" t="s">
-        <v>21</v>
-      </c>
-      <c r="E23">
-        <v>2</v>
-      </c>
-      <c r="F23">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G23">
-        <v>0.6715256666666667</v>
-      </c>
-      <c r="H23">
-        <v>2.014577</v>
-      </c>
-      <c r="I23">
-        <v>0.002491845114626373</v>
-      </c>
-      <c r="J23">
-        <v>0.002537629433237966</v>
-      </c>
-      <c r="K23">
-        <v>1</v>
-      </c>
-      <c r="L23">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M23">
-        <v>0.04441233333333333</v>
-      </c>
-      <c r="N23">
-        <v>0.133237</v>
-      </c>
-      <c r="O23">
-        <v>0.001433598258192696</v>
-      </c>
-      <c r="P23">
-        <v>0.001435060349879339</v>
-      </c>
-      <c r="Q23">
-        <v>0.02982402174988889</v>
-      </c>
-      <c r="R23">
-        <v>0.268416195749</v>
-      </c>
-      <c r="S23">
-        <v>3.572304816014346E-06</v>
-      </c>
-      <c r="T23">
-        <v>3.641651382326585E-06</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20">
-      <c r="A24" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" t="s">
-        <v>26</v>
-      </c>
-      <c r="D24" t="s">
-        <v>22</v>
-      </c>
-      <c r="E24">
-        <v>2</v>
-      </c>
-      <c r="F24">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G24">
-        <v>0.6715256666666667</v>
-      </c>
-      <c r="H24">
-        <v>2.014577</v>
-      </c>
-      <c r="I24">
-        <v>0.002491845114626373</v>
-      </c>
-      <c r="J24">
-        <v>0.002537629433237966</v>
-      </c>
-      <c r="K24">
-        <v>1</v>
-      </c>
-      <c r="L24">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M24">
-        <v>0.00569</v>
-      </c>
-      <c r="N24">
-        <v>0.01707</v>
-      </c>
-      <c r="O24">
-        <v>0.0001836691179428336</v>
-      </c>
-      <c r="P24">
-        <v>0.0001838564375694463</v>
-      </c>
-      <c r="Q24">
-        <v>0.003820981043333333</v>
-      </c>
-      <c r="R24">
-        <v>0.03438882939</v>
-      </c>
-      <c r="S24">
-        <v>4.576749942535849E-07</v>
-      </c>
-      <c r="T24">
-        <v>4.665595074665056E-07</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20">
-      <c r="A25" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25" t="s">
-        <v>25</v>
-      </c>
-      <c r="C25" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" t="s">
-        <v>23</v>
-      </c>
-      <c r="E25">
-        <v>2</v>
-      </c>
-      <c r="F25">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G25">
-        <v>0.6715256666666667</v>
-      </c>
-      <c r="H25">
-        <v>2.014577</v>
-      </c>
-      <c r="I25">
-        <v>0.002491845114626373</v>
-      </c>
-      <c r="J25">
-        <v>0.002537629433237966</v>
-      </c>
-      <c r="K25">
-        <v>1</v>
-      </c>
-      <c r="L25">
-        <v>0.5</v>
-      </c>
-      <c r="M25">
-        <v>0.0946895</v>
-      </c>
-      <c r="N25">
-        <v>0.189379</v>
-      </c>
-      <c r="O25">
-        <v>0.003056509128901219</v>
-      </c>
-      <c r="P25">
-        <v>0.002039750925041838</v>
-      </c>
-      <c r="Q25">
-        <v>0.06358642961383333</v>
-      </c>
-      <c r="R25">
-        <v>0.381518577683</v>
-      </c>
-      <c r="S25">
-        <v>7.616347340663414E-06</v>
-      </c>
-      <c r="T25">
-        <v>5.176131983860537E-06</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20">
-      <c r="A26" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>25</v>
-      </c>
-      <c r="C26" t="s">
-        <v>26</v>
-      </c>
-      <c r="D26" t="s">
-        <v>24</v>
-      </c>
-      <c r="E26">
-        <v>2</v>
-      </c>
-      <c r="F26">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G26">
-        <v>0.6715256666666667</v>
-      </c>
-      <c r="H26">
-        <v>2.014577</v>
-      </c>
-      <c r="I26">
-        <v>0.002491845114626373</v>
-      </c>
-      <c r="J26">
-        <v>0.002537629433237966</v>
-      </c>
-      <c r="K26">
-        <v>3</v>
-      </c>
-      <c r="L26">
-        <v>1</v>
-      </c>
-      <c r="M26">
-        <v>0.3570223333333333</v>
-      </c>
-      <c r="N26">
-        <v>1.071067</v>
-      </c>
-      <c r="O26">
-        <v>0.0115244247889676</v>
-      </c>
-      <c r="P26">
-        <v>0.01153617826702954</v>
-      </c>
-      <c r="Q26">
-        <v>0.2397496604065556</v>
-      </c>
-      <c r="R26">
-        <v>2.157746943659</v>
-      </c>
-      <c r="S26">
-        <v>2.871708160926798E-05</v>
-      </c>
-      <c r="T26">
-        <v>2.927454551749431E-05</v>
+        <v>3.965943427476186E-06</v>
       </c>
     </row>
   </sheetData>
